--- a/ExcelLab1.xlsx
+++ b/ExcelLab1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15148\Desktop\cegep\Intro To Computer Science\Labs\lab 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15148\Desktop\cegep\Intro To Computer Science\Labs\lab 6\ExcelLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD86D4C-1CBE-4C12-93FD-ABCDCF6B9664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903F7B60-4D28-427A-8F86-FC2E927EB3C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{78A938F6-C785-4D36-B60B-E4074C627CF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{78A938F6-C785-4D36-B60B-E4074C627CF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="4" r:id="rId1"/>
@@ -146,7 +146,7 @@
     <t>Description of the table and chart</t>
   </si>
   <si>
-    <t>Theodore Tsimiklis Excel-Lab</t>
+    <t>Theodore Tsimiklis Excel-Lab Date: 9/29/2020</t>
   </si>
 </sst>
 </file>
@@ -200,7 +200,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="26"/>
+      <sz val="16"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -460,6 +460,9 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -467,9 +470,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2308,7 +2308,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -2316,14 +2316,14 @@
             <a:t>In</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
+            <a:rPr lang="en-US" sz="1400" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> the next sheet it will present a table and a chart that will show the top 20 countries that emmitted the most co2 (gross tonnage) in 2018.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1600">
+          <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -2820,8 +2820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DADF4D-F79A-403A-91A4-4EB6A9BC279F}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2830,58 +2830,58 @@
       <c r="A1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2897,7 +2897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370F6DF3-0769-4C00-A6A8-73EDEF9B3B46}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -2912,16 +2912,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
@@ -3250,24 +3250,24 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
